--- a/data/data_statics.xlsx
+++ b/data/data_statics.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,430 +591,934 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>banking</t>
+          <t>20NG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>183</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>351</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>518</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3,073</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>clinc</t>
+          <t>AGNews</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>175</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>350</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1,344</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>17,995</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2,250</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2,250</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>hwu</t>
+          <t>DBPedia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>110</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>110</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>647</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>164</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>164</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>7,712</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1,032</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>219</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>mcid</t>
+          <t>TREC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>324</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>435</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>468</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1,198</t>
+          <t>4,849</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>490</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>532</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>news</t>
+          <t>X-Topic</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>684</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>702</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>702</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11,287</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>5,653</t>
+          <t>628</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1,879</t>
+          <t>978</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>Yahoo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>7,000</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>banking</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>9,003</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3,080</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>clinc</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1,345</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>18,000</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2,250</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2,250</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>ele</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1,498</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2,276</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>29,823</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>14,794</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4,942</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hwu</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>7,712</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1,032</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>mcid</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1,198</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>11,291</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>5,657</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1,880</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>stackoverflow</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>900</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>11,996</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>5,991</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>1,998</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>20</t>
         </is>

--- a/data/data_statics.xlsx
+++ b/data/data_statics.xlsx
@@ -1388,12 +1388,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>183</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>355</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1418,12 +1418,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>539</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11,291</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>5,657</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1,880</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
